--- a/src/MicroweberPackages/Translation/resources/lang_xlsx/en_US.xlsx
+++ b/src/MicroweberPackages/Translation/resources/lang_xlsx/en_US.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3126">
   <si>
     <t>translation_group</t>
   </si>
@@ -9232,6 +9232,174 @@
                                                     Think about what you as a consumer would want to know, then include those features in your description. For clothes: materials and fit. For food: ingredients and how it was prepared. Bullets are your friends when listing
                                                    features — try to
                                                             limit each one to 5-8 words.</t>
+  </si>
+  <si>
+    <t>Admin language</t>
+  </si>
+  <si>
+    <t>Add post</t>
+  </si>
+  <si>
+    <t>Add subpage</t>
+  </si>
+  <si>
+    <t>Category deleted</t>
+  </si>
+  <si>
+    <t>Content deleted</t>
+  </si>
+  <si>
+    <t>Search categories</t>
+  </si>
+  <si>
+    <t>Create content</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>Id Desc</t>
+  </si>
+  <si>
+    <t>Id Asc</t>
+  </si>
+  <si>
+    <t>Limit</t>
+  </si>
+  <si>
+    <t>Are you sure want to delete?</t>
+  </si>
+  <si>
+    <t>You don’t have any products in</t>
+  </si>
+  <si>
+    <t>Back to</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>Custom fields are saved</t>
+  </si>
+  <si>
+    <t>Existing fields</t>
+  </si>
+  <si>
+    <t>Choose from your existing fields bellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Add new fields</t>
+  </si>
+  <si>
+    <t>Add new custom field from list bellow</t>
+  </si>
+  <si>
+    <t>Your fields</t>
+  </si>
+  <si>
+    <t>List of your added custom fields</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>Browser Redirect</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Import Export Tool</t>
+  </si>
+  <si>
+    <t>Standalone Updater</t>
+  </si>
+  <si>
+    <t>Preview package</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Express</t>
+  </si>
+  <si>
+    <t>First Class</t>
+  </si>
+  <si>
+    <t>Click &amp; Collect</t>
+  </si>
+  <si>
+    <t>Video Background</t>
+  </si>
+  <si>
+    <t>Multi-Language</t>
+  </si>
+  <si>
+    <t>You can activate the Multi-language module to use multiple languages</t>
+  </si>
+  <si>
+    <t>Multi language mode</t>
+  </si>
+  <si>
+    <t>Activate the multi-language mode to have multiple languages for your content.</t>
+  </si>
+  <si>
+    <t>Translations are imported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations not found in database. Do you wish to import translations? </t>
+  </si>
+  <si>
+    <t>Your cart is empty.</t>
+  </si>
+  <si>
+    <t>Code Editor</t>
+  </si>
+  <si>
+    <t>Default layouts</t>
+  </si>
+  <si>
+    <t>New import</t>
+  </si>
+  <si>
+    <t xml:space="preserve">repeat vertically </t>
+  </si>
+  <si>
+    <t>Font Family</t>
+  </si>
+  <si>
+    <t>Overlay</t>
+  </si>
+  <si>
+    <t>Blend mode</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>Container type</t>
+  </si>
+  <si>
+    <t>Animations</t>
+  </si>
+  <si>
+    <t>Reloading styles</t>
   </si>
 </sst>
 </file>
@@ -9255,10 +9423,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -9269,7 +9434,7 @@
   </cellStyleXfs>
   <cellXfs count="1">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9570,7 +9735,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3062"/>
+  <dimension ref="A1:E3119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -61426,8 +61591,862 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3063" spans="1:5">
+      <c r="A3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3063" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3063" t="s">
+        <v>3070</v>
+      </c>
+      <c r="D3063"/>
+      <c r="E3063" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3064" spans="1:5">
+      <c r="A3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3064" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3064" t="s">
+        <v>3071</v>
+      </c>
+      <c r="D3064"/>
+      <c r="E3064" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3065" spans="1:5">
+      <c r="A3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3065" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3065" t="s">
+        <v>3072</v>
+      </c>
+      <c r="D3065"/>
+      <c r="E3065" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3066" spans="1:5">
+      <c r="A3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3066" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3066" t="s">
+        <v>3073</v>
+      </c>
+      <c r="D3066"/>
+      <c r="E3066" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3067" spans="1:5">
+      <c r="A3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3067" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3067" t="s">
+        <v>3074</v>
+      </c>
+      <c r="D3067"/>
+      <c r="E3067" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3068" spans="1:5">
+      <c r="A3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3068" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3068" t="s">
+        <v>3075</v>
+      </c>
+      <c r="D3068"/>
+      <c r="E3068" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3069" spans="1:5">
+      <c r="A3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3069" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3069" t="s">
+        <v>3076</v>
+      </c>
+      <c r="D3069"/>
+      <c r="E3069" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3070" spans="1:5">
+      <c r="A3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3070" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3070" t="s">
+        <v>3077</v>
+      </c>
+      <c r="D3070"/>
+      <c r="E3070" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3071" spans="1:5">
+      <c r="A3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3071" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3071" t="s">
+        <v>3078</v>
+      </c>
+      <c r="D3071"/>
+      <c r="E3071" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3072" spans="1:5">
+      <c r="A3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3072" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3072" t="s">
+        <v>3079</v>
+      </c>
+      <c r="D3072"/>
+      <c r="E3072" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3073" spans="1:5">
+      <c r="A3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3073" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3073" t="s">
+        <v>3080</v>
+      </c>
+      <c r="D3073"/>
+      <c r="E3073" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3074" spans="1:5">
+      <c r="A3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3074" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3074" t="s">
+        <v>3081</v>
+      </c>
+      <c r="D3074"/>
+      <c r="E3074" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3075" spans="1:5">
+      <c r="A3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3075" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3075" t="s">
+        <v>3082</v>
+      </c>
+      <c r="D3075"/>
+      <c r="E3075" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3076" spans="1:5">
+      <c r="A3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3076" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3076" t="s">
+        <v>3083</v>
+      </c>
+      <c r="D3076"/>
+      <c r="E3076" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3077" spans="1:5">
+      <c r="A3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3077" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3077" t="s">
+        <v>3084</v>
+      </c>
+      <c r="D3077"/>
+      <c r="E3077" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3078" spans="1:5">
+      <c r="A3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3078" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3078" t="s">
+        <v>3085</v>
+      </c>
+      <c r="D3078"/>
+      <c r="E3078" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3079" spans="1:5">
+      <c r="A3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3079" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3079" t="s">
+        <v>3086</v>
+      </c>
+      <c r="D3079"/>
+      <c r="E3079" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3080" spans="1:5">
+      <c r="A3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3080" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3080" t="s">
+        <v>3087</v>
+      </c>
+      <c r="D3080"/>
+      <c r="E3080" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3081" spans="1:5">
+      <c r="A3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3081" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3081" t="s">
+        <v>3088</v>
+      </c>
+      <c r="D3081"/>
+      <c r="E3081" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3082" spans="1:5">
+      <c r="A3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3082" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3082" t="s">
+        <v>3089</v>
+      </c>
+      <c r="D3082"/>
+      <c r="E3082" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3083" spans="1:5">
+      <c r="A3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3083" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3083" t="s">
+        <v>3090</v>
+      </c>
+      <c r="D3083"/>
+      <c r="E3083" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3084" spans="1:5">
+      <c r="A3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3084" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3084" t="s">
+        <v>3091</v>
+      </c>
+      <c r="D3084"/>
+      <c r="E3084" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3085" spans="1:5">
+      <c r="A3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3085" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3085" t="s">
+        <v>3092</v>
+      </c>
+      <c r="D3085"/>
+      <c r="E3085" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3086" spans="1:5">
+      <c r="A3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3086" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3086" t="s">
+        <v>3093</v>
+      </c>
+      <c r="D3086"/>
+      <c r="E3086" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3087" spans="1:5">
+      <c r="A3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3087" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3087" t="s">
+        <v>3094</v>
+      </c>
+      <c r="D3087"/>
+      <c r="E3087" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3088" spans="1:5">
+      <c r="A3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3088" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3088" t="s">
+        <v>3095</v>
+      </c>
+      <c r="D3088"/>
+      <c r="E3088" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3089" spans="1:5">
+      <c r="A3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3089" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3089" t="s">
+        <v>3096</v>
+      </c>
+      <c r="D3089"/>
+      <c r="E3089" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3090" spans="1:5">
+      <c r="A3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3090" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3090" t="s">
+        <v>3097</v>
+      </c>
+      <c r="D3090"/>
+      <c r="E3090" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3091" spans="1:5">
+      <c r="A3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3091" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3091" t="s">
+        <v>3098</v>
+      </c>
+      <c r="D3091"/>
+      <c r="E3091" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3092" spans="1:5">
+      <c r="A3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3092" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3092" t="s">
+        <v>3099</v>
+      </c>
+      <c r="D3092"/>
+      <c r="E3092" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3093" spans="1:5">
+      <c r="A3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3093" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3093" t="s">
+        <v>3100</v>
+      </c>
+      <c r="D3093"/>
+      <c r="E3093" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3094" spans="1:5">
+      <c r="A3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3094" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3094" t="s">
+        <v>3101</v>
+      </c>
+      <c r="D3094"/>
+      <c r="E3094" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3095" spans="1:5">
+      <c r="A3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3095" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3095" t="s">
+        <v>3102</v>
+      </c>
+      <c r="D3095"/>
+      <c r="E3095" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3096" spans="1:5">
+      <c r="A3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3096" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3096" t="s">
+        <v>3103</v>
+      </c>
+      <c r="D3096"/>
+      <c r="E3096" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3097" spans="1:5">
+      <c r="A3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3097" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3097" t="s">
+        <v>3104</v>
+      </c>
+      <c r="D3097"/>
+      <c r="E3097" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3098" spans="1:5">
+      <c r="A3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3098" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3098" t="s">
+        <v>3105</v>
+      </c>
+      <c r="D3098"/>
+      <c r="E3098" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3099" spans="1:5">
+      <c r="A3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3099" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3099" t="s">
+        <v>3106</v>
+      </c>
+      <c r="D3099"/>
+      <c r="E3099" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3100" spans="1:5">
+      <c r="A3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3100" t="s">
+        <v>3107</v>
+      </c>
+      <c r="D3100"/>
+      <c r="E3100" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3101" spans="1:5">
+      <c r="A3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3101" t="s">
+        <v>3108</v>
+      </c>
+      <c r="D3101"/>
+      <c r="E3101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3102" spans="1:5">
+      <c r="A3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3102" t="s">
+        <v>3109</v>
+      </c>
+      <c r="D3102"/>
+      <c r="E3102" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3103" spans="1:5">
+      <c r="A3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3103" t="s">
+        <v>3110</v>
+      </c>
+      <c r="D3103"/>
+      <c r="E3103" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3104" spans="1:5">
+      <c r="A3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3104" t="s">
+        <v>3111</v>
+      </c>
+      <c r="D3104"/>
+      <c r="E3104" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3105" spans="1:5">
+      <c r="A3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3105" t="s">
+        <v>3112</v>
+      </c>
+      <c r="D3105"/>
+      <c r="E3105" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3106" spans="1:5">
+      <c r="A3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3106" t="s">
+        <v>3113</v>
+      </c>
+      <c r="D3106"/>
+      <c r="E3106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3107" spans="1:5">
+      <c r="A3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3107" t="s">
+        <v>3114</v>
+      </c>
+      <c r="D3107"/>
+      <c r="E3107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3108" spans="1:5">
+      <c r="A3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3108" t="s">
+        <v>3115</v>
+      </c>
+      <c r="D3108"/>
+      <c r="E3108" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3109" spans="1:5">
+      <c r="A3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3109">
+        <v>404</v>
+      </c>
+      <c r="D3109"/>
+      <c r="E3109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3110" spans="1:5">
+      <c r="A3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3110" t="s">
+        <v>3116</v>
+      </c>
+      <c r="D3110"/>
+      <c r="E3110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3111" spans="1:5">
+      <c r="A3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3111" t="s">
+        <v>3117</v>
+      </c>
+      <c r="D3111"/>
+      <c r="E3111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3112" spans="1:5">
+      <c r="A3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3112" t="s">
+        <v>3118</v>
+      </c>
+      <c r="D3112"/>
+      <c r="E3112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3113" spans="1:5">
+      <c r="A3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3113" t="s">
+        <v>3119</v>
+      </c>
+      <c r="D3113"/>
+      <c r="E3113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3114" spans="1:5">
+      <c r="A3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3114" t="s">
+        <v>3120</v>
+      </c>
+      <c r="D3114"/>
+      <c r="E3114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3115" spans="1:5">
+      <c r="A3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3115" t="s">
+        <v>3121</v>
+      </c>
+      <c r="D3115"/>
+      <c r="E3115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3116" spans="1:5">
+      <c r="A3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3116" t="s">
+        <v>3122</v>
+      </c>
+      <c r="D3116"/>
+      <c r="E3116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3117" spans="1:5">
+      <c r="A3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3117" t="s">
+        <v>3123</v>
+      </c>
+      <c r="D3117"/>
+      <c r="E3117" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3118" spans="1:5">
+      <c r="A3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3118" t="s">
+        <v>3124</v>
+      </c>
+      <c r="D3118"/>
+      <c r="E3118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3119" spans="1:5">
+      <c r="A3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3119" t="s">
+        <v>3125</v>
+      </c>
+      <c r="D3119"/>
+      <c r="E3119" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
@@ -61439,5 +62458,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>